--- a/Excel.suite/Resources/WebFormData.xlsx
+++ b/Excel.suite/Resources/WebFormData.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randyhesse/Desktop/Excel.suite/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randyhesse/Documents/Simple Examples/Excel.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71500D00-D62B-4143-9BAB-B82DFA2CDB73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PatientList" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Prefix</t>
   </si>
@@ -165,19 +159,37 @@
   </si>
   <si>
     <t>SquarePants</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>memberNumber</t>
+  </si>
+  <si>
+    <t>testing123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF8B000C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +200,168 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -200,9 +373,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +409,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -479,14 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -541,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -567,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -593,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -619,7 +819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -645,7 +845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -671,7 +871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -697,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -723,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -748,6 +948,91 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="26.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="7.6640625" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
